--- a/login/bloutooth.xlsx
+++ b/login/bloutooth.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF2822C-1A67-4126-B597-CA397B644410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321D1FA7-08CF-4FDF-A6CE-F733AC7FF659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -58,6 +58,24 @@
   </si>
   <si>
     <t>mac_address</t>
+  </si>
+  <si>
+    <t>Eyad</t>
+  </si>
+  <si>
+    <t>78:46:D4:55:D8:12</t>
+  </si>
+  <si>
+    <t>5C-61-99-44-A2-E4</t>
+  </si>
+  <si>
+    <t>lala</t>
+  </si>
+  <si>
+    <t>lalal</t>
+  </si>
+  <si>
+    <t>5C-61-99-44-A2-E3</t>
   </si>
 </sst>
 </file>
@@ -375,15 +393,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -427,6 +445,66 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
